--- a/CashFlow/CAG_cashflow.xlsx
+++ b/CashFlow/CAG_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6160000000.0</v>
+        <v>61400000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6228000000.0</v>
+        <v>146300000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4573000000.0</v>
+        <v>158700000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2795000000.0</v>
+        <v>163500000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1482000000.0</v>
+        <v>-39600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-76800000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>93900000.0</v>
+        <v>6090000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>138300000.0</v>
+        <v>6004000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-48000000.0</v>
+        <v>4310100000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-98200000.0</v>
+        <v>2757700000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-272600000.0</v>
+        <v>1175300000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-128500000.0</v>
